--- a/src/main/webapp/배차업로드양식파일_v3.0.xlsx
+++ b/src/main/webapp/배차업로드양식파일_v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HansolLogistics\Development\Projects\LogisLink\Workspaces\Java\logislink\src\main\webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314A2AA-8924-45FC-A61F-8FE6392925EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBE18D1-F963-4784-939F-9D7BCCCBDAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>화주거래처명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,9 @@
   <si>
     <t>(주의.3) 모든 입력 내용이 유효성 체크에 문제가 없을시에만 저장됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지게차</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1281,10 +1284,10 @@
       <c r="AD1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AG1" s="14" t="s">
@@ -1382,8 +1385,12 @@
       <c r="AD2" s="16">
         <v>44449</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
+      <c r="AE2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="AG2" s="17"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="5" t="s">
@@ -1475,8 +1482,12 @@
       <c r="AD3" s="16">
         <v>44449</v>
       </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
+      <c r="AE3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17" t="s">
         <v>91</v>

--- a/src/main/webapp/배차업로드양식파일_v3.0.xlsx
+++ b/src/main/webapp/배차업로드양식파일_v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HansolLogistics\Development\Projects\LogisLink\Workspaces\Java\logislink\src\main\webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBE18D1-F963-4784-939F-9D7BCCCBDAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD2E2E-4866-45D9-B134-358327C92475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/src/main/webapp/배차업로드양식파일_v3.0.xlsx
+++ b/src/main/webapp/배차업로드양식파일_v3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HansolLogistics\Development\Projects\LogisLink\Workspaces\Java\logislink\src\main\webapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD2E2E-4866-45D9-B134-358327C92475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3FE8F-114E-4BBF-9791-BB2219159A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t>화주거래처명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,10 @@
   </si>
   <si>
     <t>지게차</t>
+  </si>
+  <si>
+    <t>외부참고정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -732,23 +736,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -757,9 +797,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -814,23 +851,32 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,921 +1197,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.25" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="10.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10.19921875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.59765625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="10.19921875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.59765625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.59765625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.25" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="11.75" style="1"/>
+    <col min="33" max="34" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.19921875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:36" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="AJ1" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="16">
+      <c r="E2" s="4"/>
+      <c r="F2" s="14">
         <v>44449</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="16">
+      <c r="M2" s="4"/>
+      <c r="N2" s="14">
         <v>44449</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="19">
         <v>5</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="16">
         <v>150000</v>
       </c>
-      <c r="Z2" s="18">
+      <c r="Z2" s="16">
         <v>110000</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="14">
         <v>44449</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="5" t="s">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="AJ2" s="31"/>
+    </row>
+    <row r="3" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="16">
+      <c r="E3" s="4"/>
+      <c r="F3" s="14">
         <v>44449</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="16">
+      <c r="M3" s="4"/>
+      <c r="N3" s="14">
         <v>44449</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="19">
         <v>5</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="16">
         <v>150000</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="16">
         <v>110000</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="14">
         <v>44449</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="10"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="10"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="10"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="10"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="AJ3" s="31"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="30"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="30"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="30"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="30"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="30"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="30"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="30"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="30"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="30"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="30"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="30"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="25"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="I15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="25"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="I16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="25"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="I17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A18" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="25"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="I18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2153,215 +2107,210 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="2"/>
-    <col min="12" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="17" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="2"/>
-    <col min="20" max="20" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E10" s="2" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E11" s="2" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-      <c r="F14" s="2" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D16" s="4"/>
-      <c r="F16" s="2" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D16" s="3"/>
+      <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="3" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2" t="s">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
         <v>60</v>
       </c>
     </row>
